--- a/database_design/database_table.xlsx
+++ b/database_design/database_table.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\108-1\database\project\database_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6440970-8094-478A-8E8B-2E4CC3539906}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586551A0-667E-4D7F-9DA6-EE734E45E70A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{EF8D227C-5F27-4049-9384-CB1C224E25E3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" tabRatio="685" firstSheet="1" activeTab="2" xr2:uid="{EF8D227C-5F27-4049-9384-CB1C224E25E3}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
     <sheet name="Platform" sheetId="2" r:id="rId2"/>
     <sheet name="Platform_activity" sheetId="3" r:id="rId3"/>
-    <sheet name="Restaurant_x0009__x0009__x0009_" sheetId="4" r:id="rId4"/>
+    <sheet name="Restaurant" sheetId="4" r:id="rId4"/>
     <sheet name="supportedPlatform" sheetId="5" r:id="rId5"/>
-    <sheet name="Category" sheetId="6" r:id="rId6"/>
-    <sheet name="RestaurantCategory" sheetId="7" r:id="rId7"/>
-    <sheet name="Food" sheetId="8" r:id="rId8"/>
-    <sheet name="ResaurantFood" sheetId="9" r:id="rId9"/>
-    <sheet name="Transaction" sheetId="10" r:id="rId10"/>
-    <sheet name="TransactionFood" sheetId="11" r:id="rId11"/>
+    <sheet name="RestaurantCategory" sheetId="12" r:id="rId6"/>
+    <sheet name="Food" sheetId="8" r:id="rId7"/>
+    <sheet name="Transaction" sheetId="10" r:id="rId8"/>
+    <sheet name="TransactionFood" sheetId="11" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Food!$A$1:$D$48</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,12 +36,715 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="233">
+  <si>
+    <t>UID</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>PID</t>
+  </si>
+  <si>
+    <t>PName</t>
+  </si>
+  <si>
+    <t>shippingFee</t>
+  </si>
+  <si>
+    <t>P_IMG_URL</t>
+  </si>
+  <si>
+    <t>discount_shippingFee</t>
+  </si>
+  <si>
+    <t>foodDiscountMode</t>
+  </si>
+  <si>
+    <t>FDM_arg1</t>
+  </si>
+  <si>
+    <t>FDM_arg2</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>P_ACT_IMG_URL</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>RID</t>
+  </si>
+  <si>
+    <t>RName</t>
+  </si>
+  <si>
+    <t>R_IMG_URL</t>
+  </si>
+  <si>
+    <t>FID</t>
+  </si>
+  <si>
+    <t>FName</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>F_IMG_URL</t>
+  </si>
+  <si>
+    <t>TID</t>
+  </si>
+  <si>
+    <t>totalPrice</t>
+  </si>
+  <si>
+    <t>getDiscount</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>Yun</t>
+  </si>
+  <si>
+    <t>Johnny</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Amy</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Crist</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Howard</t>
+  </si>
+  <si>
+    <t>Alberta</t>
+  </si>
+  <si>
+    <t>Blanche</t>
+  </si>
+  <si>
+    <t>Yun1234</t>
+  </si>
+  <si>
+    <t>Johnny4567</t>
+  </si>
+  <si>
+    <t>Kevin9876</t>
+  </si>
+  <si>
+    <t>Amy4455</t>
+  </si>
+  <si>
+    <t>David5566</t>
+  </si>
+  <si>
+    <t>Crist7531</t>
+  </si>
+  <si>
+    <t>Daniel66</t>
+  </si>
+  <si>
+    <t>Howard77</t>
+  </si>
+  <si>
+    <t>Blanche914</t>
+  </si>
+  <si>
+    <t>Alberta778</t>
+  </si>
+  <si>
+    <t>Carol666</t>
+  </si>
+  <si>
+    <t>adfqew81235</t>
+  </si>
+  <si>
+    <t>4854ada456</t>
+  </si>
+  <si>
+    <t>ads31h58yn</t>
+  </si>
+  <si>
+    <t>48wqb1556kk</t>
+  </si>
+  <si>
+    <t>v15fr8ew</t>
+  </si>
+  <si>
+    <t>hf8r724ru</t>
+  </si>
+  <si>
+    <t>fsd68r153b</t>
+  </si>
+  <si>
+    <t>42es2bv1sdr</t>
+  </si>
+  <si>
+    <t>fd54ttr988</t>
+  </si>
+  <si>
+    <t>sfgv15r</t>
+  </si>
+  <si>
+    <t>8486ersfdg</t>
+  </si>
+  <si>
+    <t>0911111111</t>
+  </si>
+  <si>
+    <t>0922222222</t>
+  </si>
+  <si>
+    <t>0933333333</t>
+  </si>
+  <si>
+    <t>0944444444</t>
+  </si>
+  <si>
+    <t>0988888888</t>
+  </si>
+  <si>
+    <t>0966666666</t>
+  </si>
+  <si>
+    <t>0955555555</t>
+  </si>
+  <si>
+    <t>0977777777</t>
+  </si>
+  <si>
+    <t>0912345678</t>
+  </si>
+  <si>
+    <t>0987654321</t>
+  </si>
+  <si>
+    <t>0921345678</t>
+  </si>
+  <si>
+    <t>Adriana C McClendon</t>
+  </si>
+  <si>
+    <t>1311 N Pecan StNewport, Arkansas(AR), 72112</t>
+  </si>
+  <si>
+    <t>17107 Croom RdBrandywine, Maryland(MD), 20613</t>
+  </si>
+  <si>
+    <t>2500 Rachel TerPine Brook, New Jersey(NJ), 07058</t>
+  </si>
+  <si>
+    <t>Jamaica Plain, Massachusetts(MA), 02130</t>
+  </si>
+  <si>
+    <t>140 Central AveAurora, Illinois(IL), 60506</t>
+  </si>
+  <si>
+    <t>Po Box 154Spavinaw, Oklahoma(OK), 74366</t>
+  </si>
+  <si>
+    <t>16100 Maple Park Dr #APT 1Maple Heights, Ohio(OH), 44137</t>
+  </si>
+  <si>
+    <t>70 Hidden Lake RdHavana, Florida(FL), 32333</t>
+  </si>
+  <si>
+    <t>92 Hawks Nest DrSummersville, West Virginia(WV),</t>
+  </si>
+  <si>
+    <t>2008 Butler Pike #UNT AConshohocken, Pennsylvania(PA), 19428</t>
+  </si>
+  <si>
+    <t>2464 Marcia DrBellbrook, Ohio(OH), 45305</t>
+  </si>
+  <si>
+    <t>35274 State 172 RteLisbon, Ohio(OH), 44432</t>
+  </si>
+  <si>
+    <t>0914244956</t>
+  </si>
+  <si>
+    <t>asdfeewf</t>
+  </si>
+  <si>
+    <t>haha989</t>
+  </si>
+  <si>
+    <t>Kenneth M Fincher</t>
+  </si>
+  <si>
+    <t>deliverroo</t>
+  </si>
+  <si>
+    <t>UberEats</t>
+  </si>
+  <si>
+    <t>Foodpanda</t>
+  </si>
+  <si>
+    <t>welcome</t>
+  </si>
+  <si>
+    <t>end_time</t>
+  </si>
+  <si>
+    <t>【限時優惠】免運</t>
+  </si>
+  <si>
+    <t>【新戶優惠】運費3 折優惠一次</t>
+  </si>
+  <si>
+    <t>【限時優惠】運費6折優惠一次</t>
+  </si>
+  <si>
+    <t>【雙11優惠】運費3折優惠一次</t>
+  </si>
+  <si>
+    <t>【新戶優惠】運費4 折優惠一次</t>
+  </si>
+  <si>
+    <t>【新戶優惠】免運優惠一次</t>
+  </si>
+  <si>
+    <t>【新戶優惠】新戶即享運費3 折優惠一次</t>
+  </si>
+  <si>
+    <t>【新戶優惠】運費6折優惠一次</t>
+  </si>
+  <si>
+    <t>虎噗食多健康餐盒</t>
+  </si>
+  <si>
+    <t>Breakfast and Brunch</t>
+  </si>
+  <si>
+    <t>Taiwanese</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>舒肥雞肉餐盒 Chicken Sous Vide Bento</t>
+  </si>
+  <si>
+    <t>106台灣台北市大安區和平東路一段11巷30號</t>
+  </si>
+  <si>
+    <t>香嫩骰子牛肋條餐盒 Rib Cube Bento</t>
+  </si>
+  <si>
+    <t>五香豬里肌餐盒 Spiced Pork Bento</t>
+  </si>
+  <si>
+    <t>美味鱸魚排餐盒 Walleye Bento</t>
+  </si>
+  <si>
+    <t>厚切鮭魚排餐盒 Salmon Bento</t>
+  </si>
+  <si>
+    <t>胡椒煎蝦餐盒 Pan-Fried Shrimp with Pepper Bento</t>
+  </si>
+  <si>
+    <t>翼板牛肉餐盒 Prime Flat Iron Steak Bentom</t>
+  </si>
+  <si>
+    <t>舒肥雞腿捲排餐盒 Chicken Legs Bento</t>
+  </si>
+  <si>
+    <t>No. 66, Ningxia Road, Datong District, Taipei City, Taiwan 103</t>
+  </si>
+  <si>
+    <t>東石鮮蚵</t>
+  </si>
+  <si>
+    <t>雞蛋蚵仔煎 Pan-Fried Egg with Oyster</t>
+  </si>
+  <si>
+    <t>無刺虱目魚肚粥 Boneless Milk Fish Belly Congee</t>
+  </si>
+  <si>
+    <t>鍋燒意麵 Crispy Fried Noodles</t>
+  </si>
+  <si>
+    <t>鮑魚海產粥 Seafood Congee with Abalone</t>
+  </si>
+  <si>
+    <t>無刺虱目魚肚湯 Boneless Milk Fish Belly Soup</t>
+  </si>
+  <si>
+    <t>麥味登 國王2號店</t>
+  </si>
+  <si>
+    <t>咖哩唐揚蛋包飯 Rice Omelet with Curry and Deep-Fried Chicken</t>
+  </si>
+  <si>
+    <t>泰式卡滋脆雞特餐 Thai Crispy Chicken Pasta Meal</t>
+  </si>
+  <si>
+    <t>港式特餐 Hong Kong Style Meal</t>
+  </si>
+  <si>
+    <t>羅勒燻雞三明治特餐 Smoked Chicken Sandwich with Basil and Pesto Sauce Meal</t>
+  </si>
+  <si>
+    <t>法式羅勒鮪魚特餐 French Basil Tuna Meal</t>
+  </si>
+  <si>
+    <t>10491台灣台北市中山區中山北路二段16巷22號</t>
+  </si>
+  <si>
+    <t>包果 Baoguo 中山南西店</t>
+  </si>
+  <si>
+    <t>學長鐵板麵 Pork Loin Patty and Thick Omelette Hot Plate Udon with Black Pepper Sauce</t>
+  </si>
+  <si>
+    <t>肉蛋起司瀑布三明治 Pork Loin Patty and Sunny-Side Up Egg Sandwich with Assorted Cheese</t>
+  </si>
+  <si>
+    <t>豬頭皮厚蛋三明治 Smoked Pork Scalp and Thick Omelette Sandwich</t>
+  </si>
+  <si>
+    <t>辣台妹三明治 Pork Loin Patty and Thick Omelette Sandwich with Spicy Dried Radish</t>
+  </si>
+  <si>
+    <t>雞爺hen辣三明治 Spicy Chicken Thigh Sandwich with Thick Omelette and Chili Anchovies</t>
+  </si>
+  <si>
+    <t>寶之薌涼麵 老婆粥</t>
+  </si>
+  <si>
+    <t>台北市中正區青島東路23號之2</t>
+  </si>
+  <si>
+    <t>老婆粥 Lean Pork Congee with Century Egg and Salted Egg</t>
+  </si>
+  <si>
+    <t>麻醬泡菜雞絲涼麵 Shredded Chicken Cold Noodles with Kimchi and Sesame Sauce</t>
+  </si>
+  <si>
+    <t>香檸泡菜雞絲涼麵 Lemon Cold Noodles with Kimchi and Shredded Chicken</t>
+  </si>
+  <si>
+    <t>蕃茄雞絲冷麵 Tomato and Shredded Chicken Cold Noodles</t>
+  </si>
+  <si>
+    <t>玉米滑蛋瘦肉粥 Lean Pork Congee with Corn and Scrambled Egg</t>
+  </si>
+  <si>
+    <t>豪季水餃</t>
+  </si>
+  <si>
+    <t>蝦仁水餃 Shrimp Dumpling10粒</t>
+  </si>
+  <si>
+    <t>高麗菜豬肉水餃 Pork Dumplings with Cabbage10粒</t>
+  </si>
+  <si>
+    <t>蝦仁炒飯 Shrimp Stir-Fried Rice</t>
+  </si>
+  <si>
+    <t>韭黃豬肉水餃 Pork Dumplings with Yellow Chive10粒</t>
+  </si>
+  <si>
+    <t>紅油炒手 Spicy Wonton</t>
+  </si>
+  <si>
+    <t>秧米 Yumeat</t>
+  </si>
+  <si>
+    <t>大份火燒牛秧米 Large Roasted Beef Rice Bento</t>
+  </si>
+  <si>
+    <t>厚切雞腿秧米 Thick Cut Chicken Drumstick Rice Bento</t>
+  </si>
+  <si>
+    <t>火燒牛秧米 Roasted Beef Rice Bento</t>
+  </si>
+  <si>
+    <t>大份蜜汁燒牛秧米 Large Roasted Beef with Honey Rice Bento</t>
+  </si>
+  <si>
+    <t>大份麻辣牛秧米 Large Hot and Spicy Beef Rice Bento</t>
+  </si>
+  <si>
+    <t>九湯屋 中正店</t>
+  </si>
+  <si>
+    <t>黑蒜豚骨拉麵 Tonkotsu Ramen with Black Garlic</t>
+  </si>
+  <si>
+    <t>韓式泡菜拉麵 Korean Kimchi Ramen</t>
+  </si>
+  <si>
+    <t>蒙古白湯拉麵 Mongolian Broth Ramen</t>
+  </si>
+  <si>
+    <t>東京豚骨拉麵 Tokyo Tonkotsu Ramen</t>
+  </si>
+  <si>
+    <t>麵頑者杭州店</t>
+  </si>
+  <si>
+    <t>半熟蛋叉燒豚骨拉麵 Pork Broth Ramen with Basted Meat and Half-Boiled Egg</t>
+  </si>
+  <si>
+    <t>野菜豚骨拉麵 Pork Broth Ramen with Vegetable</t>
+  </si>
+  <si>
+    <t>泡菜叉燒豚骨拉麵 Pork Broth Ramen with Kimchi and Basted Meat</t>
+  </si>
+  <si>
+    <t>叉燒正油拉麵 Basted Meat Ramen with Tokyo Soy Sauce</t>
+  </si>
+  <si>
+    <t>地獄叉燒豚骨拉麵 Spicy Basted Meat Tonkotsu Ramen</t>
+  </si>
+  <si>
+    <t>台北市中山區長春路147-2號1樓</t>
+  </si>
+  <si>
+    <t>39, Lane 107, Section 1, Fuxing South Road, Taipei City 106</t>
+  </si>
+  <si>
+    <t>No. 44, Huaining Street, Zhongzheng District, Taipei City, Taiwan 100, 1樓</t>
+  </si>
+  <si>
+    <t>10491台灣台北市中山區市民大道三段25號</t>
+  </si>
+  <si>
+    <t>9-1, Section 1, Hangzhou South Road, Taipei City 100</t>
+  </si>
+  <si>
+    <t>..\PIC\虎噗食多健康餐盒\a89781e1-5dd1-47bc-a079-d6a20810420b.jpeg</t>
+  </si>
+  <si>
+    <t>..\PIC\虎噗食多健康餐盒\2c7025e8-2120-4d53-9730-9a3bc87b86c3.jpeg</t>
+  </si>
+  <si>
+    <t>..\PIC\虎噗食多健康餐盒\50230529-c48c-4d94-aa3b-36556c113814.jpeg</t>
+  </si>
+  <si>
+    <t>..\PIC\虎噗食多健康餐盒\381e8c7e-ca33-42bb-82ec-bccf27c012cb.jpeg</t>
+  </si>
+  <si>
+    <t>..\PIC\虎噗食多健康餐盒\383cabad-4e74-4306-8684-d4204e698693.jpeg</t>
+  </si>
+  <si>
+    <t>..\PIC\虎噗食多健康餐盒\6fe3e7da-f849-4d38-ac9b-16f849ad68e6.jpeg</t>
+  </si>
+  <si>
+    <t>..\PIC\虎噗食多健康餐盒\66e7a6e5-a34f-4c7b-a837-6c5add188932.jpeg</t>
+  </si>
+  <si>
+    <t>..\PIC\虎噗食多健康餐盒\08faee4f-6238-4042-b70a-e0d61771b517.jpeg</t>
+  </si>
+  <si>
+    <t>..\PIC\東石鮮蚵\30b33970-5b8e-4b5f-8ed9-e04214bb5b5e.jpeg</t>
+  </si>
+  <si>
+    <t>..\PIC\東石鮮蚵\440c652f-03c9-43dd-b10b-2efbd1099221.jpeg</t>
+  </si>
+  <si>
+    <t>..\PIC\東石鮮蚵\d423d2cd-dd57-4967-98d8-41b930b4a8eb.jpeg</t>
+  </si>
+  <si>
+    <t>..\PIC\九湯屋_中正店\49cc6914-1d65-4575-b9b7-4cc4c74bdef0.jpeg</t>
+  </si>
+  <si>
+    <t>..\PIC\九湯屋_中正店\96127ff6-21a5-43f8-9135-9dc9d56e76be.jpeg</t>
+  </si>
+  <si>
+    <t>..\PIC\麵頑者杭州店\7abbbf76-1990-4914-adc8-0a0a1765a09d.jpg</t>
+  </si>
+  <si>
+    <t>..\PIC\豪季水餃\790952c4-97f9-453a-a689-2dfbb87efdd4.jpg</t>
+  </si>
+  <si>
+    <t>..\PIC\豪季水餃\770ae246-2701-4fb1-8217-c994ea0222c7.jpg</t>
+  </si>
+  <si>
+    <t>..\PIC\秧米_Yumeat\19b46b66-7ba0-4ebe-9cd8-cdb7348ba2a8.jpeg</t>
+  </si>
+  <si>
+    <t>..\PIC\秧米_Yumeat\0f0fa7b1-b5c4-40db-aa65-c77bedeb083c.jpeg</t>
+  </si>
+  <si>
+    <t>..\PIC\秧米_Yumeat\818f6b08-595a-4a00-9637-397e8cd2abc1.jpeg</t>
+  </si>
+  <si>
+    <t>..\PIC\秧米_Yumeat\fe1959f1-1d44-40bc-8cdc-1cb44e1b5fe0.jpeg</t>
+  </si>
+  <si>
+    <t>..\PIC\九湯屋_中正店\3c87a300-99d1-4b7a-99cb-7d737973cc18.jpeg</t>
+  </si>
+  <si>
+    <t>..\PIC\九湯屋_中正店\f207ceeb-9479-44df-9eb5-393ba5b7856a.jpeg</t>
+  </si>
+  <si>
+    <t>..\PIC\寶之薌涼麵_老婆粥\a9c065bf-62ad-498e-8080-8d0c6c61a77b.jpg</t>
+  </si>
+  <si>
+    <t>..\PIC\豪季水餃\8a227567-00e4-4033-b883-351af55d15ec.jpg</t>
+  </si>
+  <si>
+    <t>..\PIC\豪季水餃\91e8d48d-8d5e-4c68-a99e-b4e50794e062.jpg</t>
+  </si>
+  <si>
+    <t>..\PIC\豪季水餃\ee71688c-b40a-4185-b18a-d0ea8f49e44a.jpg</t>
+  </si>
+  <si>
+    <t>..\PIC\包果_Baoguo_中山南西店\9fa55e78-60cc-47f2-b552-4f9a21addd40.jpeg</t>
+  </si>
+  <si>
+    <t>..\PIC\包果_Baoguo_中山南西店\4048d156-4689-4984-94f7-82a73283ffd8.jpeg</t>
+  </si>
+  <si>
+    <t>..\PIC\麥味登_國王2號店\c46b1929-9531-4704-bbe0-35810f670ab9.jpg</t>
+  </si>
+  <si>
+    <t>..\PIC\麥味登_國王2號店\2103a716-cb35-4c92-a212-1c06fc784113.jpg</t>
+  </si>
+  <si>
+    <t>..\PIC\麥味登_國王2號店\08162332-3bbc-475d-936c-132785cb6024.jpg</t>
+  </si>
+  <si>
+    <t>..\PIC\麥味登_國王2號店\e7e0c713-3c2e-4950-bcbc-cb155b90c894.jpg</t>
+  </si>
+  <si>
+    <t>..\PIC\麥味登_國王2號店\89ed50de-c231-45eb-b2da-1ef70feab7d0.jpg</t>
+  </si>
+  <si>
+    <t>..\PIC\東石鮮蚵\6f8382e8-9c0d-4cd0-908d-fe04f7c92042.jpeg</t>
+  </si>
+  <si>
+    <t>..\PIC\東石鮮蚵\c037de38-a102-4704-93f3-948b0837b466.jpeg</t>
+  </si>
+  <si>
+    <t>..\PIC\包果_Baoguo_中山南西店\2411c362-1b09-4185-8a14-cd0f82e0af3c.jpeg</t>
+  </si>
+  <si>
+    <t>..\PIC\包果_Baoguo_中山南西店\12441cf5-d6b2-4474-8466-9b2e3544580a.jpeg</t>
+  </si>
+  <si>
+    <t>..\PIC\包果_Baoguo_中山南西店\39f698a5-cb39-4bfb-91f1-19a78f8ee8c6.jpeg</t>
+  </si>
+  <si>
+    <t>..\PIC\寶之薌涼麵_老婆粥\feed7d43-1e53-496c-8d7b-0ae500db607f.jpg</t>
+  </si>
+  <si>
+    <t>..\PIC\寶之薌涼麵_老婆粥\84d645b5-58cb-40e4-a390-9f905372f4e7.jpg</t>
+  </si>
+  <si>
+    <t>..\PIC\寶之薌涼麵_老婆粥\187599fb-05a1-4123-812a-48c1f4368da1.jpg</t>
+  </si>
+  <si>
+    <t>..\PIC\寶之薌涼麵_老婆粥\a1cb1055-d3be-4548-b95b-058bfa4846a1.jpg</t>
+  </si>
+  <si>
+    <t>..\PIC\麵頑者杭州店\7358379e-71e9-4196-8eca-bf34c067e996.jpg</t>
+  </si>
+  <si>
+    <t>..\PIC\麵頑者杭州店\fc66b034-07d5-4fb5-b723-d34d620761ee.jpg</t>
+  </si>
+  <si>
+    <t>..\PIC\麵頑者杭州店\fbbe4974-533a-4bcd-bfe6-c26a6ff505d8.jpg</t>
+  </si>
+  <si>
+    <t>..\PIC\麵頑者杭州店\bf032a1b-973d-4739-9052-44823bd6b542.jpg</t>
+  </si>
+  <si>
+    <t>Hurry up</t>
+  </si>
+  <si>
+    <t>11/11</t>
+  </si>
+  <si>
+    <t>..\PIC\Platform\Uber_eats.png</t>
+  </si>
+  <si>
+    <t>..\PIC\Platform\Deliveroo.png</t>
+  </si>
+  <si>
+    <t>..\PIC\Platform\foodPanda.png</t>
+  </si>
+  <si>
+    <t>Deliverroo</t>
+  </si>
+  <si>
+    <t>PA_Name</t>
+  </si>
+  <si>
+    <t>..\PIC\虎噗食多健康餐盒\a0771122-6a5e-484c-8e4a-4520e9b1d7f1.png</t>
+  </si>
+  <si>
+    <t>..\PIC\東石鮮蚵\55b5b12d-ba2f-44f3-9cd8-e36494e3cfc8.jpeg</t>
+  </si>
+  <si>
+    <t>..\PIC\麥味登_國王2號店\d82ddd45-0cf2-4ffe-ace6-2633cffa80d1.jpeg</t>
+  </si>
+  <si>
+    <t>..\PIC\包果_Baoguo_中山南西店\a77a11ce-23d6-465f-8d39-2d1c8434f612.jpeg</t>
+  </si>
+  <si>
+    <t>..\PIC\秧米_Yumeat\0d14e9ee-0ed4-40ca-bbba-7cadca3a1404.jpeg</t>
+  </si>
+  <si>
+    <t>..\PIC\寶之薌涼麵_老婆粥\c0dbefe7-983d-4290-b831-fe37c76197b4.jpeg</t>
+  </si>
+  <si>
+    <t>..\PIC\豪季水餃\5bc21257-a433-4291-9552-0bb62fa907fa.jpeg</t>
+  </si>
+  <si>
+    <t>..\PIC\九湯屋_中正店\a7acaec5-fffb-43d8-bdb9-f310e829b006.jpeg</t>
+  </si>
+  <si>
+    <t>..\PIC\麵頑者杭州店\77f8351e-2524-4ac8-aeb3-1c46561be0fb.jpeg</t>
+  </si>
+  <si>
+    <t>UName</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>CName</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -48,16 +752,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -65,15 +788,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="中等" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -385,156 +1171,1850 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30366485-D664-4704-B3CA-77A1FD8E1F39}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="A1:D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.69921875" customWidth="1"/>
+    <col min="2" max="3" width="13.69921875" customWidth="1"/>
+    <col min="4" max="4" width="61.19921875" customWidth="1"/>
+    <col min="5" max="5" width="13.69921875" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411C1A6D-8613-42BB-AC61-4C155A61AFE2}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF7222D-67CC-41BA-AA88-1CBAF5A89E97}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1336DD6A-C181-47AC-AD09-79C8746B3EED}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="A1:F8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="3" width="14.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD54620-B959-4B40-8B59-C2B1E21BFDF7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I14:I15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.19921875" customWidth="1"/>
+    <col min="2" max="2" width="11.796875" customWidth="1"/>
+    <col min="3" max="4" width="19.8984375" customWidth="1"/>
+    <col min="5" max="6" width="11.69921875" customWidth="1"/>
+    <col min="7" max="7" width="30.5" customWidth="1"/>
+    <col min="8" max="8" width="24.69921875" customWidth="1"/>
+    <col min="9" max="9" width="15.296875" style="11" customWidth="1"/>
+    <col min="10" max="10" width="20.59765625" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="11">
+        <v>40982</v>
+      </c>
+      <c r="J2" s="11">
+        <v>41013</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="11">
+        <v>43831</v>
+      </c>
+      <c r="J3" s="11">
+        <v>43832</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="11">
+        <v>43780</v>
+      </c>
+      <c r="J4" s="11">
+        <v>44147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5" s="11">
+        <v>43907</v>
+      </c>
+      <c r="J5" s="11">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" s="11">
+        <v>43908</v>
+      </c>
+      <c r="J6" s="11">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I7" s="11">
+        <v>43909</v>
+      </c>
+      <c r="J7" s="11">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="11">
+        <v>43910</v>
+      </c>
+      <c r="J8" s="11">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="11">
+        <v>43831</v>
+      </c>
+      <c r="J9" s="11">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" s="11">
+        <v>43899</v>
+      </c>
+      <c r="J10" s="11">
+        <v>43937</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="11">
+        <v>43913</v>
+      </c>
+      <c r="J11" s="11">
+        <v>43913</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" s="11">
+        <v>43835</v>
+      </c>
+      <c r="J12" s="11">
+        <v>43836</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13">
+        <v>60</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" s="11">
+        <v>43838</v>
+      </c>
+      <c r="J13" s="11">
+        <v>43850</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" t="s">
+        <v>214</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" s="11">
+        <v>43916</v>
+      </c>
+      <c r="J14" s="11">
+        <v>43977</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70513EFD-1F8E-4A02-A409-FC7FE41E5CD1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="2" max="2" width="64.796875" customWidth="1"/>
+    <col min="3" max="3" width="67.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0045284-D2C7-4B64-8E9B-D60E54ED569D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="4" width="18.09765625" customWidth="1"/>
-    <col min="5" max="5" width="21.8984375" customWidth="1"/>
-    <col min="6" max="6" width="18.09765625" customWidth="1"/>
-    <col min="7" max="7" width="13.19921875" customWidth="1"/>
-    <col min="8" max="8" width="11.09765625" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="9.3984375" customWidth="1"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="3" max="3" width="21.8984375" customWidth="1"/>
+    <col min="4" max="4" width="18.09765625" customWidth="1"/>
+    <col min="5" max="5" width="13.19921875" customWidth="1"/>
+    <col min="6" max="6" width="11.09765625" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="9.3984375" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35FFC86B-BC11-4F70-BDDD-E2CCDEB8C617}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9C478F-9BF4-4986-8B6D-FBFFD277DC17}">
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.59765625" customWidth="1"/>
+    <col min="2" max="2" width="20.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D94F22-7E01-40F7-B8C6-7F3408F5E500}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2719EC9F-4D44-4CEF-9B4E-49B7D4D27DD3}">
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="D44" activeCellId="7" sqref="D10 D15 D20 D25 D30 D35 D40 D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="34.8984375" customWidth="1"/>
+    <col min="2" max="2" width="63.5" customWidth="1"/>
+    <col min="3" max="3" width="9.796875" customWidth="1"/>
+    <col min="4" max="4" width="69.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2">
+        <v>190</v>
+      </c>
+      <c r="D2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3">
+        <v>240</v>
+      </c>
+      <c r="D3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5">
+        <v>220</v>
+      </c>
+      <c r="D5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6">
+        <v>240</v>
+      </c>
+      <c r="D6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
+      </c>
+      <c r="D7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8">
+        <v>230</v>
+      </c>
+      <c r="D8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9">
+        <v>200</v>
+      </c>
+      <c r="D9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12">
+        <v>90</v>
+      </c>
+      <c r="D12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13">
+        <v>90</v>
+      </c>
+      <c r="D13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14">
+        <v>90</v>
+      </c>
+      <c r="D14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15">
+        <v>140</v>
+      </c>
+      <c r="D15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16">
+        <v>150</v>
+      </c>
+      <c r="D16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17">
+        <v>120</v>
+      </c>
+      <c r="D17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18">
+        <v>130</v>
+      </c>
+      <c r="D18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19">
+        <v>125</v>
+      </c>
+      <c r="D19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20">
+        <v>85</v>
+      </c>
+      <c r="D20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21">
+        <v>99</v>
+      </c>
+      <c r="D21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22">
+        <v>80</v>
+      </c>
+      <c r="D22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23">
+        <v>85</v>
+      </c>
+      <c r="D23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24">
+        <v>99</v>
+      </c>
+      <c r="D24" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25">
+        <v>70</v>
+      </c>
+      <c r="D25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27">
+        <v>70</v>
+      </c>
+      <c r="D27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28">
+        <v>70</v>
+      </c>
+      <c r="D28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29">
+        <v>70</v>
+      </c>
+      <c r="D29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30">
+        <v>95</v>
+      </c>
+      <c r="D30" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31">
+        <v>85</v>
+      </c>
+      <c r="D31" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32">
+        <v>105</v>
+      </c>
+      <c r="D32" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33">
+        <v>85</v>
+      </c>
+      <c r="D33" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>140</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34">
+        <v>80</v>
+      </c>
+      <c r="D34" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35">
+        <v>170</v>
+      </c>
+      <c r="D35" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36">
+        <v>150</v>
+      </c>
+      <c r="D36" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37">
+        <v>150</v>
+      </c>
+      <c r="D37" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38">
+        <v>180</v>
+      </c>
+      <c r="D38" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39">
+        <v>180</v>
+      </c>
+      <c r="D39" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>152</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40">
+        <v>149</v>
+      </c>
+      <c r="D40" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C41">
+        <v>139</v>
+      </c>
+      <c r="D41" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>152</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42">
+        <v>139</v>
+      </c>
+      <c r="D42" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43">
+        <v>129</v>
+      </c>
+      <c r="D43" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>157</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44">
+        <v>149</v>
+      </c>
+      <c r="D44" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>157</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C45">
+        <v>119</v>
+      </c>
+      <c r="D45" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>157</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46">
+        <v>139</v>
+      </c>
+      <c r="D46" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>157</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C47">
+        <v>129</v>
+      </c>
+      <c r="D47" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>157</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C48">
+        <v>159</v>
+      </c>
+      <c r="D48" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D48" xr:uid="{8CB4DF1B-4B1C-4DCB-9F54-8B22EF317197}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2719EC9F-4D44-4CEF-9B4E-49B7D4D27DD3}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411C1A6D-8613-42BB-AC61-4C155A61AFE2}">
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="12.796875" customWidth="1"/>
+    <col min="6" max="6" width="14.296875" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7DC1BC-6862-4F0B-BB6C-60F4077BB64F}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF7222D-67CC-41BA-AA88-1CBAF5A89E97}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/database_design/database_table.xlsx
+++ b/database_design/database_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\108-1\database\project\database_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9529B8DF-C8E8-4E97-B7D5-CD777CA1FD61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A673AD3A-2860-4350-8281-1CE8B3BCE035}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -1389,10 +1389,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="21.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
     <col min="8" max="8" width="21.77734375" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="18.5546875" customWidth="1"/>
@@ -1861,7 +1863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -2823,6 +2825,11 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
